--- a/tables/Table2/Table2.xlsx
+++ b/tables/Table2/Table2.xlsx
@@ -19,33 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Model</t>
   </si>
   <si>
-    <t>Biodiversity measure</t>
-  </si>
-  <si>
     <t>Slope</t>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>p-value</t>
   </si>
   <si>
     <t>Lognormal</t>
@@ -81,59 +60,25 @@
     <t>Broken-stick</t>
   </si>
   <si>
-    <t>&lt;0.0001</t>
-  </si>
-  <si>
-    <t>&lt;0.0002</t>
-  </si>
-  <si>
-    <t>&lt;0.0003</t>
-  </si>
-  <si>
-    <t>&lt;0.0004</t>
-  </si>
-  <si>
-    <t>&lt;0.0005</t>
-  </si>
-  <si>
-    <t>&lt;0.0006</t>
-  </si>
-  <si>
-    <t>&lt;0.0007</t>
-  </si>
-  <si>
-    <t>&lt;0.0008</t>
-  </si>
-  <si>
-    <t>&lt;0.0009</t>
-  </si>
-  <si>
-    <t>&lt;0.0010</t>
-  </si>
-  <si>
-    <t>&lt;0.0011</t>
-  </si>
-  <si>
-    <t>&lt;0.0012</t>
+    <t>Diversity metric</t>
+  </si>
+  <si>
+    <t>% Difference</t>
+  </si>
+  <si>
+    <t>% Error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,17 +122,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -520,206 +469,206 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.64</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
+        <v>1.5</v>
+      </c>
+      <c r="E2">
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>-0.51</v>
+        <v>-0.48</v>
       </c>
       <c r="D3">
-        <v>0.61</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
+        <v>42</v>
+      </c>
+      <c r="E3">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="D4">
-        <v>0.52</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0.54</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E5">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>-0.6</v>
+        <v>-0.53</v>
       </c>
       <c r="D6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
+        <v>53</v>
+      </c>
+      <c r="E6">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>9.7000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D7">
-        <v>0.33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="D8">
-        <v>0.8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>-0.12</v>
+        <v>-0.16</v>
       </c>
       <c r="D9">
-        <v>0.75</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
+        <v>66</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>4.1000000000000002E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="D10">
-        <v>0.81</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
+        <v>92</v>
+      </c>
+      <c r="E10">
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>0.73</v>
       </c>
       <c r="D11">
-        <v>0.77</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>-8.8000000000000005E-3</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="D12">
-        <v>0.45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
+        <v>170</v>
+      </c>
+      <c r="E12">
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>1.6E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D13">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
+        <v>160</v>
+      </c>
+      <c r="E13">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/tables/Table2/Table2.xlsx
+++ b/tables/Table2/Table2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="12720" yWindow="-20" windowWidth="12800" windowHeight="15540" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Model</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>% Difference</t>
-  </si>
-  <si>
-    <t>% Error</t>
   </si>
 </sst>
 </file>
@@ -466,15 +463,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,11 +484,8 @@
       <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17">
+    </row>
+    <row r="2" spans="1:4" ht="17">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -504,11 +498,8 @@
       <c r="D2">
         <v>1.5</v>
       </c>
-      <c r="E2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:4">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -518,11 +509,8 @@
       <c r="D3">
         <v>42</v>
       </c>
-      <c r="E3">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:4">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -532,11 +520,8 @@
       <c r="D4">
         <v>23</v>
       </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17">
+    </row>
+    <row r="5" spans="1:4" ht="17">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -549,11 +534,8 @@
       <c r="D5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E5">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:4">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -563,11 +545,8 @@
       <c r="D6">
         <v>53</v>
       </c>
-      <c r="E6">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:4">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -577,11 +556,8 @@
       <c r="D7">
         <v>41</v>
       </c>
-      <c r="E7">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17">
+    </row>
+    <row r="8" spans="1:4" ht="17">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -594,11 +570,8 @@
       <c r="D8">
         <v>16</v>
       </c>
-      <c r="E8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:4">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -608,11 +581,8 @@
       <c r="D9">
         <v>66</v>
       </c>
-      <c r="E9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+    </row>
+    <row r="10" spans="1:4">
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -622,11 +592,8 @@
       <c r="D10">
         <v>92</v>
       </c>
-      <c r="E10">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17">
+    </row>
+    <row r="11" spans="1:4" ht="17">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -639,11 +606,8 @@
       <c r="D11">
         <v>32</v>
       </c>
-      <c r="E11">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+    </row>
+    <row r="12" spans="1:4">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -653,11 +617,8 @@
       <c r="D12">
         <v>170</v>
       </c>
-      <c r="E12">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+    </row>
+    <row r="13" spans="1:4">
       <c r="B13" t="s">
         <v>5</v>
       </c>
@@ -666,9 +627,6 @@
       </c>
       <c r="D13">
         <v>160</v>
-      </c>
-      <c r="E13">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
